--- a/Excel/05-Profit-&-Balance-by-Market.xlsx
+++ b/Excel/05-Profit-&-Balance-by-Market.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A6/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1774" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{613030BB-D2C4-4B08-A5CE-B454260F3E79}"/>
+  <xr:revisionPtr revIDLastSave="1784" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5707CDEB-4165-4F92-BB8F-FA66AF721179}"/>
   <bookViews>
-    <workbookView xWindow="9936" yWindow="660" windowWidth="13104" windowHeight="11364" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14112" yWindow="876" windowWidth="8928" windowHeight="11364" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Market Amt by Period" sheetId="2" r:id="rId1"/>
@@ -713,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F4CBCB-3344-43F6-9D2A-BD9A74C7367A}">
-  <dimension ref="A1:F265"/>
+  <dimension ref="A1:F272"/>
   <sheetViews>
-    <sheetView topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="B265" sqref="B265"/>
+    <sheetView topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="B272" sqref="B272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -5181,7 +5181,7 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="10">
-        <v>46021</v>
+        <v>45656</v>
       </c>
       <c r="B260" s="11" t="s">
         <v>1</v>
@@ -5251,6 +5251,73 @@
         <v>1</v>
       </c>
       <c r="D265" s="7"/>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="10">
+        <v>45688</v>
+      </c>
+      <c r="B267" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C267" s="10"/>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="6">
+        <v>2</v>
+      </c>
+      <c r="B268" s="8">
+        <v>2970450</v>
+      </c>
+      <c r="C268" s="7">
+        <f>B268/B272</f>
+        <v>0.49325898483748998</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="6">
+        <v>4</v>
+      </c>
+      <c r="B269" s="8">
+        <v>1045460</v>
+      </c>
+      <c r="C269" s="7">
+        <f>B269/B272</f>
+        <v>0.17360418060839344</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="6">
+        <v>1</v>
+      </c>
+      <c r="B270" s="8">
+        <v>1020320</v>
+      </c>
+      <c r="C270" s="7">
+        <f>B270/B272</f>
+        <v>0.1694295502059916</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="6">
+        <v>3</v>
+      </c>
+      <c r="B271" s="8">
+        <v>985860</v>
+      </c>
+      <c r="C271" s="7">
+        <f>B271/B272</f>
+        <v>0.16370728434812498</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="B272" s="9">
+        <f>SUM(B268:B271)</f>
+        <v>6022090</v>
+      </c>
+      <c r="C272" s="7">
+        <f>SUM(C268:C271)</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5261,8 +5328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7022,10 +7089,10 @@
     </row>
     <row r="126" spans="1:6" ht="43.2">
       <c r="A126" s="2">
-        <v>46021</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>81</v>
+        <v>45688</v>
+      </c>
+      <c r="B126" s="3">
+        <v>0</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>86</v>
@@ -7034,7 +7101,7 @@
     <row r="127" spans="1:6">
       <c r="A127" s="5"/>
       <c r="B127" s="4">
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="C127" s="13">
         <v>11532530</v>

--- a/Excel/05-Profit-&-Balance-by-Market.xlsx
+++ b/Excel/05-Profit-&-Balance-by-Market.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1784" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5707CDEB-4165-4F92-BB8F-FA66AF721179}"/>
+  <xr:revisionPtr revIDLastSave="1804" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04FBDF13-F751-43B9-BBED-94B958771379}"/>
   <bookViews>
-    <workbookView xWindow="14112" yWindow="876" windowWidth="8928" windowHeight="11364" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13416" yWindow="780" windowWidth="9624" windowHeight="11436" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Market Amt by Period" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="88">
   <si>
     <t>Market</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>12.33, 25.28, 62.39</t>
+  </si>
+  <si>
+    <t>12.31, 25.50, 62.19</t>
   </si>
 </sst>
 </file>
@@ -307,7 +310,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +358,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -382,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -399,6 +408,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,6 +426,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -716,7 +732,7 @@
   <dimension ref="A1:F272"/>
   <sheetViews>
     <sheetView topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="B272" sqref="B272"/>
+      <selection activeCell="F271" sqref="F271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -5260,6 +5276,13 @@
         <v>1</v>
       </c>
       <c r="C267" s="10"/>
+      <c r="D267" s="10">
+        <v>45709</v>
+      </c>
+      <c r="E267" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F267" s="10"/>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="6">
@@ -5272,6 +5295,16 @@
         <f>B268/B272</f>
         <v>0.49325898483748998</v>
       </c>
+      <c r="D268" s="6">
+        <v>2</v>
+      </c>
+      <c r="E268" s="8">
+        <v>3198870</v>
+      </c>
+      <c r="F268" s="7">
+        <f>E268/E272</f>
+        <v>0.51573715199628534</v>
+      </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="6">
@@ -5284,6 +5317,16 @@
         <f>B269/B272</f>
         <v>0.17360418060839344</v>
       </c>
+      <c r="D269" s="6">
+        <v>4</v>
+      </c>
+      <c r="E269" s="8">
+        <v>1087150</v>
+      </c>
+      <c r="F269" s="7">
+        <f>E269/E272</f>
+        <v>0.1752755331703888</v>
+      </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="6">
@@ -5296,6 +5339,16 @@
         <f>B270/B272</f>
         <v>0.1694295502059916</v>
       </c>
+      <c r="D270" s="6">
+        <v>3</v>
+      </c>
+      <c r="E270" s="8">
+        <v>969680</v>
+      </c>
+      <c r="F270" s="7">
+        <f>E270/E272</f>
+        <v>0.15633645679498009</v>
+      </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="6">
@@ -5307,6 +5360,16 @@
       <c r="C271" s="7">
         <f>B271/B272</f>
         <v>0.16370728434812498</v>
+      </c>
+      <c r="D271" s="6">
+        <v>3</v>
+      </c>
+      <c r="E271" s="8">
+        <v>946820</v>
+      </c>
+      <c r="F271" s="7">
+        <f>E271/E272</f>
+        <v>0.15265085803834572</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5316,6 +5379,14 @@
       </c>
       <c r="C272" s="7">
         <f>SUM(C268:C271)</f>
+        <v>1</v>
+      </c>
+      <c r="E272" s="9">
+        <f>SUM(E268:E271)</f>
+        <v>6202520</v>
+      </c>
+      <c r="F272" s="7">
+        <f>SUM(F268:F271)</f>
         <v>1</v>
       </c>
     </row>
@@ -5329,7 +5400,7 @@
   <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+      <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7086,6 +7157,15 @@
       <c r="C125" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D125" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="126" spans="1:6" ht="43.2">
       <c r="A126" s="2">
@@ -7096,6 +7176,15 @@
       </c>
       <c r="C126" s="3" t="s">
         <v>86</v>
+      </c>
+      <c r="D126" s="2">
+        <v>45709</v>
+      </c>
+      <c r="E126" s="3">
+        <v>0</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -7106,6 +7195,13 @@
       <c r="C127" s="13">
         <v>11532530</v>
       </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="4">
+        <v>0</v>
+      </c>
+      <c r="F127" s="13">
+        <v>11546830</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/05-Profit-&-Balance-by-Market.xlsx
+++ b/Excel/05-Profit-&-Balance-by-Market.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1804" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04FBDF13-F751-43B9-BBED-94B958771379}"/>
+  <xr:revisionPtr revIDLastSave="1972" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DAA6C69-ED85-424E-9782-B1D78C238FB5}"/>
   <bookViews>
-    <workbookView xWindow="13416" yWindow="780" windowWidth="9624" windowHeight="11436" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12684" yWindow="612" windowWidth="10356" windowHeight="11628" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Market Amt by Period" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="102">
   <si>
     <t>Market</t>
   </si>
@@ -301,6 +301,48 @@
   </si>
   <si>
     <t>12.31, 25.50, 62.19</t>
+  </si>
+  <si>
+    <t>0.0, 10.87, 89.13</t>
+  </si>
+  <si>
+    <t>12.65, 25.56, 61.79</t>
+  </si>
+  <si>
+    <t>12.73, 25.71, 61.56</t>
+  </si>
+  <si>
+    <t>-0.0, 9.61, 90.39</t>
+  </si>
+  <si>
+    <t>12.96, 25.65, 61.4</t>
+  </si>
+  <si>
+    <t>13.65, 24.16, 62.19</t>
+  </si>
+  <si>
+    <t>-0.0, 31.38, 68.62</t>
+  </si>
+  <si>
+    <t>13.63, 24.11, 62.26</t>
+  </si>
+  <si>
+    <t>13.65, 23.04, 63.31</t>
+  </si>
+  <si>
+    <t>-0.4, 42.7, 57.71</t>
+  </si>
+  <si>
+    <t>13.82, 21.7, 64.49</t>
+  </si>
+  <si>
+    <t>-0.34, 51.22, 49.12</t>
+  </si>
+  <si>
+    <t>13.93, 21.06, 65.01</t>
+  </si>
+  <si>
+    <t>-0.32, 54.57, 45.74</t>
   </si>
 </sst>
 </file>
@@ -729,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F4CBCB-3344-43F6-9D2A-BD9A74C7367A}">
-  <dimension ref="A1:F272"/>
+  <dimension ref="A1:F314"/>
   <sheetViews>
-    <sheetView topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="F271" sqref="F271"/>
+    <sheetView topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="B314" sqref="B314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -5390,6 +5432,683 @@
         <v>1</v>
       </c>
     </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="10">
+        <v>45758</v>
+      </c>
+      <c r="B274" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C274" s="10"/>
+      <c r="D274" s="10">
+        <v>45779</v>
+      </c>
+      <c r="E274" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F274" s="10"/>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="6">
+        <v>2</v>
+      </c>
+      <c r="B275" s="8">
+        <v>3010910</v>
+      </c>
+      <c r="C275" s="7">
+        <f>B275/B279</f>
+        <v>0.53377073941246234</v>
+      </c>
+      <c r="D275" s="6">
+        <v>2</v>
+      </c>
+      <c r="E275" s="8">
+        <v>3125025</v>
+      </c>
+      <c r="F275" s="7">
+        <f>E275/E279</f>
+        <v>0.52840380210970928</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="6">
+        <v>4</v>
+      </c>
+      <c r="B276" s="8">
+        <v>1028780</v>
+      </c>
+      <c r="C276" s="7">
+        <f>B276/B279</f>
+        <v>0.18238096166698872</v>
+      </c>
+      <c r="D276" s="6">
+        <v>4</v>
+      </c>
+      <c r="E276" s="8">
+        <v>1088380</v>
+      </c>
+      <c r="F276" s="7">
+        <f>E276/E279</f>
+        <v>0.18403184939005779</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="6">
+        <v>3</v>
+      </c>
+      <c r="B277" s="8">
+        <v>913340</v>
+      </c>
+      <c r="C277" s="7">
+        <f>B277/B279</f>
+        <v>0.16191588826467027</v>
+      </c>
+      <c r="D277" s="6">
+        <v>3</v>
+      </c>
+      <c r="E277" s="8">
+        <v>982120</v>
+      </c>
+      <c r="F277" s="7">
+        <f>E277/E279</f>
+        <v>0.16606457296437235</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="6">
+        <v>3</v>
+      </c>
+      <c r="B278" s="8">
+        <v>687800</v>
+      </c>
+      <c r="C278" s="7">
+        <f>B278/B279</f>
+        <v>0.12193241065587866</v>
+      </c>
+      <c r="D278" s="6">
+        <v>3</v>
+      </c>
+      <c r="E278" s="8">
+        <v>718560</v>
+      </c>
+      <c r="F278" s="7">
+        <f>E278/E279</f>
+        <v>0.12149977553586058</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="B279" s="9">
+        <f>SUM(B275:B278)</f>
+        <v>5640830</v>
+      </c>
+      <c r="C279" s="7">
+        <f>SUM(C275:C278)</f>
+        <v>1</v>
+      </c>
+      <c r="E279" s="9">
+        <f>SUM(E275:E278)</f>
+        <v>5914085</v>
+      </c>
+      <c r="F279" s="7">
+        <f>SUM(F275:F278)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="10">
+        <v>45786</v>
+      </c>
+      <c r="B281" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C281" s="10"/>
+      <c r="D281" s="10">
+        <v>45793</v>
+      </c>
+      <c r="E281" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F281" s="10"/>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="6">
+        <v>2</v>
+      </c>
+      <c r="B282" s="8">
+        <v>3189125</v>
+      </c>
+      <c r="C282" s="7">
+        <f>B282/B286</f>
+        <v>0.52738917860990686</v>
+      </c>
+      <c r="D282" s="6">
+        <v>2</v>
+      </c>
+      <c r="E282" s="8">
+        <v>3243780</v>
+      </c>
+      <c r="F282" s="7">
+        <f>E282/E286</f>
+        <v>0.54004495130275532</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="6">
+        <v>4</v>
+      </c>
+      <c r="B283" s="8">
+        <v>1130280</v>
+      </c>
+      <c r="C283" s="7">
+        <f>B283/B286</f>
+        <v>0.18691567147703697</v>
+      </c>
+      <c r="D283" s="6">
+        <v>4</v>
+      </c>
+      <c r="E283" s="8">
+        <v>1161360</v>
+      </c>
+      <c r="F283" s="7">
+        <f>E283/E286</f>
+        <v>0.19335053691833848</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="6">
+        <v>3</v>
+      </c>
+      <c r="B284" s="8">
+        <v>989300</v>
+      </c>
+      <c r="C284" s="7">
+        <f>B284/B286</f>
+        <v>0.16360165073453717</v>
+      </c>
+      <c r="D284" s="6">
+        <v>3</v>
+      </c>
+      <c r="E284" s="8">
+        <v>936680</v>
+      </c>
+      <c r="F284" s="7">
+        <f>E284/E286</f>
+        <v>0.15594439357362858</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="6">
+        <v>3</v>
+      </c>
+      <c r="B285" s="8">
+        <v>738300</v>
+      </c>
+      <c r="C285" s="7">
+        <f>B285/B286</f>
+        <v>0.12209349917851896</v>
+      </c>
+      <c r="D285" s="6">
+        <v>1</v>
+      </c>
+      <c r="E285" s="8">
+        <v>664680</v>
+      </c>
+      <c r="F285" s="7">
+        <f>E285/E286</f>
+        <v>0.11066011820527762</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="B286" s="9">
+        <f>SUM(B282:B285)</f>
+        <v>6047005</v>
+      </c>
+      <c r="C286" s="7">
+        <f>SUM(C282:C285)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="E286" s="9">
+        <f>SUM(E282:E285)</f>
+        <v>6006500</v>
+      </c>
+      <c r="F286" s="7">
+        <f>SUM(F282:F285)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="10">
+        <v>45800</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C288" s="10"/>
+      <c r="D288" s="10">
+        <v>45807</v>
+      </c>
+      <c r="E288" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F288" s="10"/>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="6">
+        <v>2</v>
+      </c>
+      <c r="B289" s="8">
+        <v>3240500</v>
+      </c>
+      <c r="C289" s="7">
+        <f>B289/B293</f>
+        <v>0.5381674571857521</v>
+      </c>
+      <c r="D289" s="6">
+        <v>2</v>
+      </c>
+      <c r="E289" s="8">
+        <v>3227820</v>
+      </c>
+      <c r="F289" s="7">
+        <f>E289/E293</f>
+        <v>0.53652139224094941</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="6">
+        <v>4</v>
+      </c>
+      <c r="B290" s="8">
+        <v>1178690</v>
+      </c>
+      <c r="C290" s="7">
+        <f>B290/B293</f>
+        <v>0.19575145814234657</v>
+      </c>
+      <c r="D290" s="6">
+        <v>4</v>
+      </c>
+      <c r="E290" s="8">
+        <v>1158050</v>
+      </c>
+      <c r="F290" s="7">
+        <f>E290/E293</f>
+        <v>0.19248861407532994</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="6">
+        <v>3</v>
+      </c>
+      <c r="B291" s="8">
+        <v>941170</v>
+      </c>
+      <c r="C291" s="7">
+        <f>B291/B293</f>
+        <v>0.15630522008317058</v>
+      </c>
+      <c r="D291" s="6">
+        <v>3</v>
+      </c>
+      <c r="E291" s="8">
+        <v>969450</v>
+      </c>
+      <c r="F291" s="7">
+        <f>E291/E293</f>
+        <v>0.1611399222100329</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="6">
+        <v>1</v>
+      </c>
+      <c r="B292" s="8">
+        <v>661000</v>
+      </c>
+      <c r="C292" s="7">
+        <f>B292/B293</f>
+        <v>0.10977586458873079</v>
+      </c>
+      <c r="D292" s="6">
+        <v>1</v>
+      </c>
+      <c r="E292" s="8">
+        <v>660880</v>
+      </c>
+      <c r="F292" s="7">
+        <f>E292/E293</f>
+        <v>0.10985007147368771</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="B293" s="9">
+        <f>SUM(B289:B292)</f>
+        <v>6021360</v>
+      </c>
+      <c r="C293" s="7">
+        <f>SUM(C289:C292)</f>
+        <v>1</v>
+      </c>
+      <c r="E293" s="9">
+        <f>SUM(E289:E292)</f>
+        <v>6016200</v>
+      </c>
+      <c r="F293" s="7">
+        <f>SUM(F289:F292)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="10">
+        <v>45821</v>
+      </c>
+      <c r="B295" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C295" s="10"/>
+      <c r="D295" s="10">
+        <v>45828</v>
+      </c>
+      <c r="E295" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F295" s="10"/>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="6">
+        <v>2</v>
+      </c>
+      <c r="B296" s="8">
+        <v>3101430</v>
+      </c>
+      <c r="C296" s="7">
+        <f>B296/B300</f>
+        <v>0.52055495784609751</v>
+      </c>
+      <c r="D296" s="6">
+        <v>2</v>
+      </c>
+      <c r="E296" s="8">
+        <v>2988385</v>
+      </c>
+      <c r="F296" s="7">
+        <f>E296/E300</f>
+        <v>0.53018357103952618</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="6">
+        <v>3</v>
+      </c>
+      <c r="B297" s="8">
+        <v>2168350</v>
+      </c>
+      <c r="C297" s="7">
+        <f>B297/B300</f>
+        <v>0.3639435172954365</v>
+      </c>
+      <c r="D297" s="6">
+        <v>3</v>
+      </c>
+      <c r="E297" s="8">
+        <v>2052800</v>
+      </c>
+      <c r="F297" s="7">
+        <f>E297/E300</f>
+        <v>0.36419699423934315</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="6">
+        <v>1</v>
+      </c>
+      <c r="B298" s="8">
+        <v>431000</v>
+      </c>
+      <c r="C298" s="7">
+        <f>B298/B300</f>
+        <v>7.2340561235194098E-2</v>
+      </c>
+      <c r="D298" s="6">
+        <v>1</v>
+      </c>
+      <c r="E298" s="8">
+        <v>394850</v>
+      </c>
+      <c r="F298" s="7">
+        <f>E298/E300</f>
+        <v>7.005221316027116E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="6">
+        <v>4</v>
+      </c>
+      <c r="B299" s="8">
+        <v>257150</v>
+      </c>
+      <c r="C299" s="7">
+        <f>B299/B300</f>
+        <v>4.316096362327184E-2</v>
+      </c>
+      <c r="D299" s="6">
+        <v>4</v>
+      </c>
+      <c r="E299" s="8">
+        <v>200475</v>
+      </c>
+      <c r="F299" s="7">
+        <f>E299/E300</f>
+        <v>3.5567221560859466E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="B300" s="9">
+        <f>SUM(B296:B299)</f>
+        <v>5957930</v>
+      </c>
+      <c r="C300" s="7">
+        <f>SUM(C296:C299)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="E300" s="9">
+        <f>SUM(E296:E299)</f>
+        <v>5636510</v>
+      </c>
+      <c r="F300" s="7">
+        <f>SUM(F296:F299)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="10">
+        <v>45842</v>
+      </c>
+      <c r="B302" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C302" s="10"/>
+      <c r="D302" s="10">
+        <v>45856</v>
+      </c>
+      <c r="E302" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F302" s="10"/>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="6">
+        <v>2</v>
+      </c>
+      <c r="B303" s="8">
+        <v>3085905</v>
+      </c>
+      <c r="C303" s="7">
+        <f>B303/B307</f>
+        <v>0.52395966778643999</v>
+      </c>
+      <c r="D303" s="6">
+        <v>2</v>
+      </c>
+      <c r="E303" s="8">
+        <v>3201550</v>
+      </c>
+      <c r="F303" s="7">
+        <f>E303/E307</f>
+        <v>0.5240538859425129</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="6">
+        <v>3</v>
+      </c>
+      <c r="B304" s="8">
+        <v>2176550</v>
+      </c>
+      <c r="C304" s="7">
+        <f>B304/B307</f>
+        <v>0.36955914550855451</v>
+      </c>
+      <c r="D304" s="6">
+        <v>3</v>
+      </c>
+      <c r="E304" s="8">
+        <v>2276650</v>
+      </c>
+      <c r="F304" s="7">
+        <f>E304/E307</f>
+        <v>0.37265926798926208</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" s="6">
+        <v>1</v>
+      </c>
+      <c r="B305" s="8">
+        <v>438870</v>
+      </c>
+      <c r="C305" s="7">
+        <f>B305/B307</f>
+        <v>7.4516285952236028E-2</v>
+      </c>
+      <c r="D305" s="6">
+        <v>1</v>
+      </c>
+      <c r="E305" s="8">
+        <v>478300</v>
+      </c>
+      <c r="F305" s="7">
+        <f>E305/E307</f>
+        <v>7.8291756694820927E-2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="6">
+        <v>4</v>
+      </c>
+      <c r="B306" s="8">
+        <v>188260</v>
+      </c>
+      <c r="C306" s="7">
+        <f>B306/B307</f>
+        <v>3.1964900752769511E-2</v>
+      </c>
+      <c r="D306" s="6">
+        <v>4</v>
+      </c>
+      <c r="E306" s="8">
+        <v>152700</v>
+      </c>
+      <c r="F306" s="7">
+        <f>E306/E307</f>
+        <v>2.4995089373404045E-2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="B307" s="9">
+        <f>SUM(B303:B306)</f>
+        <v>5889585</v>
+      </c>
+      <c r="C307" s="7">
+        <f>SUM(C303:C306)</f>
+        <v>1</v>
+      </c>
+      <c r="E307" s="9">
+        <f>SUM(E303:E306)</f>
+        <v>6109200</v>
+      </c>
+      <c r="F307" s="7">
+        <f>SUM(F303:F306)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="10">
+        <v>45863</v>
+      </c>
+      <c r="B309" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C309" s="10"/>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" s="6">
+        <v>2</v>
+      </c>
+      <c r="B310" s="8">
+        <v>3234205</v>
+      </c>
+      <c r="C310" s="7">
+        <f>B310/B314</f>
+        <v>0.52929383683432307</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" s="6">
+        <v>3</v>
+      </c>
+      <c r="B311" s="8">
+        <v>2264750</v>
+      </c>
+      <c r="C311" s="7">
+        <f>B311/B314</f>
+        <v>0.37063767354590482</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="6">
+        <v>1</v>
+      </c>
+      <c r="B312" s="8">
+        <v>479320</v>
+      </c>
+      <c r="C312" s="7">
+        <f>B312/B314</f>
+        <v>7.8443117202350407E-2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" s="6">
+        <v>4</v>
+      </c>
+      <c r="B313" s="8">
+        <v>132140</v>
+      </c>
+      <c r="C313" s="7">
+        <f>B313/B314</f>
+        <v>2.1625372417421729E-2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="B314" s="9">
+        <f>SUM(B310:B313)</f>
+        <v>6110415</v>
+      </c>
+      <c r="C314" s="7">
+        <f>SUM(C310:C313)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5397,10 +6116,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F128" sqref="F128"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7203,7 +7922,344 @@
         <v>11546830</v>
       </c>
     </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="43.2">
+      <c r="A130" s="2">
+        <v>45758</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D130" s="2">
+        <v>45779</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="5"/>
+      <c r="B131" s="4">
+        <v>-374760</v>
+      </c>
+      <c r="C131" s="13">
+        <v>11237530</v>
+      </c>
+      <c r="D131" s="5"/>
+      <c r="E131" s="4">
+        <v>-374760</v>
+      </c>
+      <c r="F131" s="13">
+        <v>11237530</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="43.2">
+      <c r="A134" s="2">
+        <v>45786</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D134" s="2">
+        <v>45793</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="5"/>
+      <c r="B135" s="4">
+        <v>-374760</v>
+      </c>
+      <c r="C135" s="13">
+        <v>11237530</v>
+      </c>
+      <c r="D135" s="5"/>
+      <c r="E135" s="4">
+        <v>-477500</v>
+      </c>
+      <c r="F135" s="13">
+        <v>11170528</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="43.2">
+      <c r="A138" s="2">
+        <v>45800</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D138" s="2">
+        <v>45800</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="5"/>
+      <c r="B139" s="4">
+        <v>-477500</v>
+      </c>
+      <c r="C139" s="13">
+        <v>11199928</v>
+      </c>
+      <c r="D139" s="5"/>
+      <c r="E139" s="4">
+        <v>-477500</v>
+      </c>
+      <c r="F139" s="13">
+        <v>11199928</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="43.2">
+      <c r="A142" s="2">
+        <v>45821</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D142" s="2">
+        <v>45828</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="5"/>
+      <c r="B143" s="4">
+        <v>-477500</v>
+      </c>
+      <c r="C143" s="13">
+        <v>11258428</v>
+      </c>
+      <c r="D143" s="5"/>
+      <c r="E143" s="4">
+        <v>-629000</v>
+      </c>
+      <c r="F143" s="13">
+        <v>11058430</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="43.2">
+      <c r="A146" s="2">
+        <v>45835</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D146" s="2">
+        <v>45842</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="5"/>
+      <c r="B147" s="4">
+        <v>-629000</v>
+      </c>
+      <c r="C147" s="13">
+        <v>11078080</v>
+      </c>
+      <c r="D147" s="5"/>
+      <c r="E147" s="4">
+        <v>-748000</v>
+      </c>
+      <c r="F147" s="13">
+        <v>10893580</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="43.2">
+      <c r="A150" s="2">
+        <v>45856</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D150" s="2">
+        <v>45863</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="5"/>
+      <c r="B151" s="4">
+        <v>-878000</v>
+      </c>
+      <c r="C151" s="13">
+        <v>10763580</v>
+      </c>
+      <c r="D151" s="5"/>
+      <c r="E151" s="4">
+        <v>-943000</v>
+      </c>
+      <c r="F151" s="13">
+        <v>10676580</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/05-Profit-&-Balance-by-Market.xlsx
+++ b/Excel/05-Profit-&-Balance-by-Market.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1972" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DAA6C69-ED85-424E-9782-B1D78C238FB5}"/>
+  <xr:revisionPtr revIDLastSave="1984" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{407D05E4-578B-49D6-B5A2-9A4C5E031BAC}"/>
   <bookViews>
-    <workbookView xWindow="12684" yWindow="612" windowWidth="10356" windowHeight="11628" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11916" yWindow="744" windowWidth="11124" windowHeight="9948" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Market Amt by Period" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="104">
   <si>
     <t>Market</t>
   </si>
@@ -343,6 +343,12 @@
   </si>
   <si>
     <t>-0.32, 54.57, 45.74</t>
+  </si>
+  <si>
+    <t>14.47, 19.18, 66.35</t>
+  </si>
+  <si>
+    <t>-1.22, 58.34, 42.88</t>
   </si>
 </sst>
 </file>
@@ -468,10 +474,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -773,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F4CBCB-3344-43F6-9D2A-BD9A74C7367A}">
   <dimension ref="A1:F314"/>
   <sheetViews>
-    <sheetView topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="B314" sqref="B314"/>
+    <sheetView topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="E314" sqref="E314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -6050,6 +6052,13 @@
         <v>1</v>
       </c>
       <c r="C309" s="10"/>
+      <c r="D309" s="10">
+        <v>45877</v>
+      </c>
+      <c r="E309" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F309" s="10"/>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="6">
@@ -6062,6 +6071,16 @@
         <f>B310/B314</f>
         <v>0.52929383683432307</v>
       </c>
+      <c r="D310" s="6">
+        <v>2</v>
+      </c>
+      <c r="E310" s="8">
+        <v>3297560</v>
+      </c>
+      <c r="F310" s="7">
+        <f>E310/E314</f>
+        <v>0.53401694896040652</v>
+      </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="6">
@@ -6074,6 +6093,16 @@
         <f>B311/B314</f>
         <v>0.37063767354590482</v>
       </c>
+      <c r="D311" s="6">
+        <v>3</v>
+      </c>
+      <c r="E311" s="8">
+        <v>2278910</v>
+      </c>
+      <c r="F311" s="7">
+        <f>E311/E314</f>
+        <v>0.36905365335440754</v>
+      </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="6">
@@ -6086,6 +6115,16 @@
         <f>B312/B314</f>
         <v>7.8443117202350407E-2</v>
       </c>
+      <c r="D312" s="6">
+        <v>1</v>
+      </c>
+      <c r="E312" s="8">
+        <v>509240</v>
+      </c>
+      <c r="F312" s="7">
+        <f>E312/E314</f>
+        <v>8.2467882643105034E-2</v>
+      </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="6">
@@ -6097,6 +6136,16 @@
       <c r="C313" s="7">
         <f>B313/B314</f>
         <v>2.1625372417421729E-2</v>
+      </c>
+      <c r="D313" s="6">
+        <v>4</v>
+      </c>
+      <c r="E313" s="8">
+        <v>89300</v>
+      </c>
+      <c r="F313" s="7">
+        <f>E313/E314</f>
+        <v>1.4461515042080904E-2</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -6106,6 +6155,14 @@
       </c>
       <c r="C314" s="7">
         <f>SUM(C310:C313)</f>
+        <v>1</v>
+      </c>
+      <c r="E314" s="9">
+        <f>SUM(E310:E313)</f>
+        <v>6175010</v>
+      </c>
+      <c r="F314" s="7">
+        <f>SUM(F310:F313)</f>
         <v>1</v>
       </c>
     </row>
@@ -6116,10 +6173,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="E151" sqref="E151"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8258,6 +8315,37 @@
         <v>10676580</v>
       </c>
     </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="43.2">
+      <c r="A154" s="2">
+        <v>45877</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="5"/>
+      <c r="B155" s="4">
+        <v>-974000</v>
+      </c>
+      <c r="C155" s="13">
+        <v>10377630</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Excel/05-Profit-&-Balance-by-Market.xlsx
+++ b/Excel/05-Profit-&-Balance-by-Market.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1984" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{407D05E4-578B-49D6-B5A2-9A4C5E031BAC}"/>
+  <xr:revisionPtr revIDLastSave="2000" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C99EE26-4CE4-4DEE-BB74-4C423981A6B2}"/>
   <bookViews>
-    <workbookView xWindow="11916" yWindow="744" windowWidth="11124" windowHeight="9948" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12204" yWindow="1320" windowWidth="10044" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Market Amt by Period" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="104">
   <si>
     <t>Market</t>
   </si>
@@ -474,6 +474,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -773,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F4CBCB-3344-43F6-9D2A-BD9A74C7367A}">
-  <dimension ref="A1:F314"/>
+  <dimension ref="A1:F321"/>
   <sheetViews>
-    <sheetView topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="E314" sqref="E314"/>
+    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="B321" sqref="B321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -6166,6 +6170,73 @@
         <v>1</v>
       </c>
     </row>
+    <row r="316" spans="1:6">
+      <c r="A316" s="10">
+        <v>45884</v>
+      </c>
+      <c r="B316" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C316" s="10"/>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" s="6">
+        <v>2</v>
+      </c>
+      <c r="B317" s="8">
+        <v>3383915</v>
+      </c>
+      <c r="C317" s="7">
+        <f>B317/B321</f>
+        <v>0.55029316368786996</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="6">
+        <v>3</v>
+      </c>
+      <c r="B318" s="8">
+        <v>2188740</v>
+      </c>
+      <c r="C318" s="7">
+        <f>B318/B321</f>
+        <v>0.35593348505804323</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" s="6">
+        <v>1</v>
+      </c>
+      <c r="B319" s="8">
+        <v>488800</v>
+      </c>
+      <c r="C319" s="7">
+        <f>B319/B321</f>
+        <v>7.948878692598095E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="6">
+        <v>4</v>
+      </c>
+      <c r="B320" s="8">
+        <v>87840</v>
+      </c>
+      <c r="C320" s="7">
+        <f>B320/B321</f>
+        <v>1.4284564328105905E-2</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3">
+      <c r="B321" s="9">
+        <f>SUM(B317:B320)</f>
+        <v>6149295</v>
+      </c>
+      <c r="C321" s="7">
+        <f>SUM(C317:C320)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6175,8 +6246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8325,6 +8396,15 @@
       <c r="C153" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D153" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="154" spans="1:6" ht="43.2">
       <c r="A154" s="2">
@@ -8334,6 +8414,15 @@
         <v>103</v>
       </c>
       <c r="C154" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D154" s="2">
+        <v>45884</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F154" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -8344,6 +8433,13 @@
       </c>
       <c r="C155" s="13">
         <v>10377630</v>
+      </c>
+      <c r="D155" s="5"/>
+      <c r="E155" s="4">
+        <v>-974000</v>
+      </c>
+      <c r="F155" s="13">
+        <v>10486380</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/05-Profit-&-Balance-by-Market.xlsx
+++ b/Excel/05-Profit-&-Balance-by-Market.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2000" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C99EE26-4CE4-4DEE-BB74-4C423981A6B2}"/>
+  <xr:revisionPtr revIDLastSave="2018" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B7B0445-4EE9-4654-885E-49E51FAFAAE2}"/>
   <bookViews>
-    <workbookView xWindow="12204" yWindow="1320" windowWidth="10044" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12528" yWindow="1860" windowWidth="10476" windowHeight="10032" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Market Amt by Period" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="106">
   <si>
     <t>Market</t>
   </si>
@@ -349,6 +349,12 @@
   </si>
   <si>
     <t>-1.22, 58.34, 42.88</t>
+  </si>
+  <si>
+    <t>15.91, 19.42, 64.67</t>
+  </si>
+  <si>
+    <t>-1.51, 59.13, 42.38</t>
   </si>
 </sst>
 </file>
@@ -779,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F4CBCB-3344-43F6-9D2A-BD9A74C7367A}">
   <dimension ref="A1:F321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="B321" sqref="B321"/>
+    <sheetView topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="E321" sqref="E321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -6178,6 +6184,13 @@
         <v>1</v>
       </c>
       <c r="C316" s="10"/>
+      <c r="D316" s="10">
+        <v>45905</v>
+      </c>
+      <c r="E316" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F316" s="10"/>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="6">
@@ -6190,6 +6203,16 @@
         <f>B317/B321</f>
         <v>0.55029316368786996</v>
       </c>
+      <c r="D317" s="6">
+        <v>2</v>
+      </c>
+      <c r="E317" s="8">
+        <v>3336895</v>
+      </c>
+      <c r="F317" s="7">
+        <f>E317/E321</f>
+        <v>0.52355236041367748</v>
+      </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="6">
@@ -6202,6 +6225,16 @@
         <f>B318/B321</f>
         <v>0.35593348505804323</v>
       </c>
+      <c r="D318" s="6">
+        <v>3</v>
+      </c>
+      <c r="E318" s="8">
+        <v>2268370</v>
+      </c>
+      <c r="F318" s="7">
+        <f>E318/E321</f>
+        <v>0.35590285813355632</v>
+      </c>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="6">
@@ -6214,6 +6247,16 @@
         <f>B319/B321</f>
         <v>7.948878692598095E-2</v>
       </c>
+      <c r="D319" s="6">
+        <v>1</v>
+      </c>
+      <c r="E319" s="8">
+        <v>558940</v>
+      </c>
+      <c r="F319" s="7">
+        <f>E319/E321</f>
+        <v>8.7696603078496888E-2</v>
+      </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="6">
@@ -6226,14 +6269,32 @@
         <f>B320/B321</f>
         <v>1.4284564328105905E-2</v>
       </c>
-    </row>
-    <row r="321" spans="2:3">
+      <c r="D320" s="6">
+        <v>4</v>
+      </c>
+      <c r="E320" s="8">
+        <v>209360</v>
+      </c>
+      <c r="F320" s="7">
+        <f>E320/E321</f>
+        <v>3.2848178374269343E-2</v>
+      </c>
+    </row>
+    <row r="321" spans="2:6">
       <c r="B321" s="9">
         <f>SUM(B317:B320)</f>
         <v>6149295</v>
       </c>
       <c r="C321" s="7">
         <f>SUM(C317:C320)</f>
+        <v>1</v>
+      </c>
+      <c r="E321" s="9">
+        <f>SUM(E317:E320)</f>
+        <v>6373565</v>
+      </c>
+      <c r="F321" s="7">
+        <f>SUM(F317:F320)</f>
         <v>1</v>
       </c>
     </row>
@@ -6244,10 +6305,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="D155" sqref="D155"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6278,7 +6339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57.6">
+    <row r="2" spans="1:6" ht="72">
       <c r="A2" s="2">
         <v>44946</v>
       </c>
@@ -6782,7 +6843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="43.2">
+    <row r="38" spans="1:6" ht="57.6">
       <c r="A38" s="2">
         <v>45093</v>
       </c>
@@ -6838,7 +6899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="43.2">
+    <row r="42" spans="1:6" ht="57.6">
       <c r="A42" s="2">
         <v>45107</v>
       </c>
@@ -6894,7 +6955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="43.2">
+    <row r="46" spans="1:6" ht="57.6">
       <c r="A46" s="2">
         <v>45121</v>
       </c>
@@ -6950,7 +7011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="43.2">
+    <row r="50" spans="1:6" ht="57.6">
       <c r="A50" s="2">
         <v>45134</v>
       </c>
@@ -7006,7 +7067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="43.2">
+    <row r="54" spans="1:6" ht="57.6">
       <c r="A54" s="2">
         <v>45156</v>
       </c>
@@ -7062,7 +7123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="43.2">
+    <row r="58" spans="1:6" ht="57.6">
       <c r="A58" s="2">
         <v>45170</v>
       </c>
@@ -7118,7 +7179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="43.2">
+    <row r="62" spans="1:6" ht="57.6">
       <c r="A62" s="2">
         <v>45184</v>
       </c>
@@ -7174,7 +7235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="43.2">
+    <row r="66" spans="1:6" ht="57.6">
       <c r="A66" s="2">
         <v>45198</v>
       </c>
@@ -7230,7 +7291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="43.2">
+    <row r="70" spans="1:6" ht="57.6">
       <c r="A70" s="2">
         <v>45211</v>
       </c>
@@ -7286,7 +7347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="43.2">
+    <row r="74" spans="1:6" ht="57.6">
       <c r="A74" s="2">
         <v>45247</v>
       </c>
@@ -7454,7 +7515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="43.2">
+    <row r="86" spans="1:6" ht="57.6">
       <c r="A86" s="2">
         <v>45443</v>
       </c>
@@ -7510,7 +7571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="43.2">
+    <row r="90" spans="1:6" ht="57.6">
       <c r="A90" s="2">
         <v>45457</v>
       </c>
@@ -7566,7 +7627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="43.2">
+    <row r="94" spans="1:6" ht="57.6">
       <c r="A94" s="2">
         <v>45471</v>
       </c>
@@ -7622,7 +7683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="43.2">
+    <row r="98" spans="1:6" ht="57.6">
       <c r="A98" s="2">
         <v>45499</v>
       </c>
@@ -7678,7 +7739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="43.2">
+    <row r="102" spans="1:6" ht="57.6">
       <c r="A102" s="2">
         <v>45527</v>
       </c>
@@ -7734,7 +7795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="43.2">
+    <row r="106" spans="1:6" ht="57.6">
       <c r="A106" s="2">
         <v>45541</v>
       </c>
@@ -7790,7 +7851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="43.2">
+    <row r="110" spans="1:6" ht="72">
       <c r="A110" s="2">
         <v>45555</v>
       </c>
@@ -7846,7 +7907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="43.2">
+    <row r="114" spans="1:6" ht="72">
       <c r="A114" s="2">
         <v>45569</v>
       </c>
@@ -7902,7 +7963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="43.2">
+    <row r="118" spans="1:6" ht="72">
       <c r="A118" s="2">
         <v>45583</v>
       </c>
@@ -7958,7 +8019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="43.2">
+    <row r="122" spans="1:6" ht="72">
       <c r="A122" s="2">
         <v>45604</v>
       </c>
@@ -8350,7 +8411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="43.2">
+    <row r="150" spans="1:6" ht="57.6">
       <c r="A150" s="2">
         <v>45856</v>
       </c>
@@ -8406,7 +8467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="43.2">
+    <row r="154" spans="1:6" ht="57.6">
       <c r="A154" s="2">
         <v>45877</v>
       </c>
@@ -8440,6 +8501,37 @@
       </c>
       <c r="F155" s="13">
         <v>10486380</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="58.2" customHeight="1">
+      <c r="A158" s="2">
+        <v>45905</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="5"/>
+      <c r="B159" s="4">
+        <v>-962000</v>
+      </c>
+      <c r="C159" s="13">
+        <v>10680980</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/05-Profit-&-Balance-by-Market.xlsx
+++ b/Excel/05-Profit-&-Balance-by-Market.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2018" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B7B0445-4EE9-4654-885E-49E51FAFAAE2}"/>
+  <xr:revisionPtr revIDLastSave="2029" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33600A47-808A-4A53-A9F7-325E48EB70BA}"/>
   <bookViews>
-    <workbookView xWindow="12528" yWindow="1860" windowWidth="10476" windowHeight="10032" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14940" yWindow="0" windowWidth="8112" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Market Amt by Period" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="106">
   <si>
     <t>Market</t>
   </si>
@@ -351,10 +351,10 @@
     <t>-1.22, 58.34, 42.88</t>
   </si>
   <si>
-    <t>15.91, 19.42, 64.67</t>
-  </si>
-  <si>
-    <t>-1.51, 59.13, 42.38</t>
+    <t>14.95, 19.64, 65.41</t>
+  </si>
+  <si>
+    <t>-1.24, 58.97, 42.27</t>
   </si>
 </sst>
 </file>
@@ -783,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F4CBCB-3344-43F6-9D2A-BD9A74C7367A}">
-  <dimension ref="A1:F321"/>
+  <dimension ref="A1:F328"/>
   <sheetViews>
-    <sheetView topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="E321" sqref="E321"/>
+    <sheetView topLeftCell="A306" workbookViewId="0">
+      <selection activeCell="B328" sqref="B328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -6280,7 +6280,7 @@
         <v>3.2848178374269343E-2</v>
       </c>
     </row>
-    <row r="321" spans="2:6">
+    <row r="321" spans="1:6">
       <c r="B321" s="9">
         <f>SUM(B317:B320)</f>
         <v>6149295</v>
@@ -6295,6 +6295,73 @@
       </c>
       <c r="F321" s="7">
         <f>SUM(F317:F320)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="10">
+        <v>45912</v>
+      </c>
+      <c r="B323" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C323" s="10"/>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="6">
+        <v>2</v>
+      </c>
+      <c r="B324" s="8">
+        <v>3457010</v>
+      </c>
+      <c r="C324" s="7">
+        <f>B324/B328</f>
+        <v>0.53106743169650739</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="6">
+        <v>3</v>
+      </c>
+      <c r="B325" s="8">
+        <v>2361760</v>
+      </c>
+      <c r="C325" s="7">
+        <f>B325/B328</f>
+        <v>0.36281463388406265</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" s="6">
+        <v>1</v>
+      </c>
+      <c r="B326" s="8">
+        <v>591140</v>
+      </c>
+      <c r="C326" s="7">
+        <f>B326/B328</f>
+        <v>9.0811192785983666E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="6">
+        <v>4</v>
+      </c>
+      <c r="B327" s="8">
+        <v>99640</v>
+      </c>
+      <c r="C327" s="7">
+        <f>B327/B328</f>
+        <v>1.5306741633446244E-2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="B328" s="9">
+        <f>SUM(B324:B327)</f>
+        <v>6509550</v>
+      </c>
+      <c r="C328" s="7">
+        <f>SUM(C324:C327)</f>
         <v>1</v>
       </c>
     </row>
@@ -6308,7 +6375,7 @@
   <dimension ref="A1:F159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="B160" sqref="B160"/>
+      <selection activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8516,7 +8583,7 @@
     </row>
     <row r="158" spans="1:6" ht="58.2" customHeight="1">
       <c r="A158" s="2">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>105</v>
@@ -8528,10 +8595,10 @@
     <row r="159" spans="1:6">
       <c r="A159" s="5"/>
       <c r="B159" s="4">
-        <v>-962000</v>
+        <v>-965000</v>
       </c>
       <c r="C159" s="13">
-        <v>10680980</v>
+        <v>10560480</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/05-Profit-&-Balance-by-Market.xlsx
+++ b/Excel/05-Profit-&-Balance-by-Market.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2029" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33600A47-808A-4A53-A9F7-325E48EB70BA}"/>
+  <xr:revisionPtr revIDLastSave="2052" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA00909D-D22D-47A5-8910-AB44088B9332}"/>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="0" windowWidth="8112" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13956" yWindow="1560" windowWidth="10032" windowHeight="10404" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Market Amt by Period" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="108">
   <si>
     <t>Market</t>
   </si>
@@ -355,6 +355,12 @@
   </si>
   <si>
     <t>-1.24, 58.97, 42.27</t>
+  </si>
+  <si>
+    <t>17.65, 19.31, 63.04</t>
+  </si>
+  <si>
+    <t>-1.26, 59.92, 41.34</t>
   </si>
 </sst>
 </file>
@@ -783,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F4CBCB-3344-43F6-9D2A-BD9A74C7367A}">
-  <dimension ref="A1:F328"/>
+  <dimension ref="A1:F335"/>
   <sheetViews>
-    <sheetView topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="B328" sqref="B328"/>
+    <sheetView topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="B335" sqref="B335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -6306,6 +6312,13 @@
         <v>1</v>
       </c>
       <c r="C323" s="10"/>
+      <c r="D323" s="10">
+        <v>45919</v>
+      </c>
+      <c r="E323" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F323" s="10"/>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="6">
@@ -6318,6 +6331,16 @@
         <f>B324/B328</f>
         <v>0.53106743169650739</v>
       </c>
+      <c r="D324" s="6">
+        <v>2</v>
+      </c>
+      <c r="E324" s="8">
+        <v>3500505</v>
+      </c>
+      <c r="F324" s="7">
+        <f>E324/E328</f>
+        <v>0.52914607388685619</v>
+      </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="6">
@@ -6330,6 +6353,16 @@
         <f>B325/B328</f>
         <v>0.36281463388406265</v>
       </c>
+      <c r="D325" s="6">
+        <v>3</v>
+      </c>
+      <c r="E325" s="8">
+        <v>2053240</v>
+      </c>
+      <c r="F325" s="7">
+        <f>E325/E328</f>
+        <v>0.31037347032712381</v>
+      </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="6">
@@ -6342,6 +6375,16 @@
         <f>B326/B328</f>
         <v>9.0811192785983666E-2</v>
       </c>
+      <c r="D326" s="6">
+        <v>4</v>
+      </c>
+      <c r="E326" s="8">
+        <v>888620</v>
+      </c>
+      <c r="F326" s="7">
+        <f>E326/E328</f>
+        <v>0.13432627126010052</v>
+      </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="6">
@@ -6353,6 +6396,16 @@
       <c r="C327" s="7">
         <f>B327/B328</f>
         <v>1.5306741633446244E-2</v>
+      </c>
+      <c r="D327" s="6">
+        <v>1</v>
+      </c>
+      <c r="E327" s="8">
+        <v>173020</v>
+      </c>
+      <c r="F327" s="7">
+        <f>E327/E328</f>
+        <v>2.6154184525919503E-2</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -6362,6 +6415,81 @@
       </c>
       <c r="C328" s="7">
         <f>SUM(C324:C327)</f>
+        <v>1</v>
+      </c>
+      <c r="E328" s="9">
+        <f>SUM(E324:E327)</f>
+        <v>6615385</v>
+      </c>
+      <c r="F328" s="7">
+        <f>SUM(F324:F327)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" s="10">
+        <v>45926</v>
+      </c>
+      <c r="B330" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C330" s="10"/>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" s="6">
+        <v>2</v>
+      </c>
+      <c r="B331" s="8">
+        <v>3484975</v>
+      </c>
+      <c r="C331" s="7">
+        <f>B331/B335</f>
+        <v>0.5313527025615653</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" s="6">
+        <v>3</v>
+      </c>
+      <c r="B332" s="8">
+        <v>2040910</v>
+      </c>
+      <c r="C332" s="7">
+        <f>B332/B335</f>
+        <v>0.31117670691609672</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" s="6">
+        <v>4</v>
+      </c>
+      <c r="B333" s="8">
+        <v>862080</v>
+      </c>
+      <c r="C333" s="7">
+        <f>B333/B335</f>
+        <v>0.13144098245303745</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" s="6">
+        <v>1</v>
+      </c>
+      <c r="B334" s="8">
+        <v>170720</v>
+      </c>
+      <c r="C334" s="7">
+        <f>B334/B335</f>
+        <v>2.6029608069300478E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="B335" s="9">
+        <f>SUM(B331:B334)</f>
+        <v>6558685</v>
+      </c>
+      <c r="C335" s="7">
+        <f>SUM(C331:C334)</f>
         <v>1</v>
       </c>
     </row>
@@ -6372,10 +6500,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F159"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="A159" sqref="A159"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8580,6 +8708,15 @@
       <c r="C157" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D157" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="158" spans="1:6" ht="58.2" customHeight="1">
       <c r="A158" s="2">
@@ -8590,6 +8727,15 @@
       </c>
       <c r="C158" s="3" t="s">
         <v>104</v>
+      </c>
+      <c r="D158" s="2">
+        <v>45919</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -8599,6 +8745,44 @@
       </c>
       <c r="C159" s="13">
         <v>10560480</v>
+      </c>
+      <c r="D159" s="5"/>
+      <c r="E159" s="4">
+        <v>-951000</v>
+      </c>
+      <c r="F159" s="13">
+        <v>10740580</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="57.6">
+      <c r="A162" s="2">
+        <v>45926</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="5"/>
+      <c r="B163" s="4">
+        <v>-951000</v>
+      </c>
+      <c r="C163" s="13">
+        <v>10740580</v>
       </c>
     </row>
   </sheetData>
